--- a/biology/Zoologie/Dunnart_de_Gilbert/Dunnart_de_Gilbert.xlsx
+++ b/biology/Zoologie/Dunnart_de_Gilbert/Dunnart_de_Gilbert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sminthopsis gilberti
 Le Dunnart de Gilbert (Sminthopsis gilberti) est une espèce de souris marsupiales qui a été décrite pour la première fois en 1984. 
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa longueur totale est de 155 à 180 mm, dont 80 à 90 mm pour la tête et le corps et 75 à 90 mm pour la queue. La longueur du pied est de 18 mm, de l'oreille de 21 mm et son poids va de 14 à 25 g.
 </t>
@@ -543,7 +557,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve au Sud-Ouest de la Wheatbelt près de Perth et de la rivière Swan en Australie-Occidentale ainsi que dans la plaine de Roe près de la frontière avec l'Australie-Méridionale.
 Elle apprécie les landes et les forêts avec sous-bois. Elle est abondante en bordure du littoral dans les forêts sclérophylles sèches, les terres boisées semi-arides et les mallees.
@@ -575,7 +591,9 @@
           <t>Organisation sociale et reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce nocturne niche dans les trous ou les buissons denses. Elle se reproduit de septembre à décembre et les jeunes sont sevrés en janvier-février.
 </t>
@@ -606,7 +624,9 @@
           <t>Régime alimentaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Sminthopsis gilberti se nourrit essentiellement d'insectes.
 </t>
@@ -637,9 +657,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, gilberti, lui a été donné en l'honneur de John Gilbert (1812-1845), qui, en Australie-Occidentale et dans les années 1843-44, a collecté de très nombreux spécimens[2], notamment pour les futures publications de Gould.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, gilberti, lui a été donné en l'honneur de John Gilbert (1812-1845), qui, en Australie-Occidentale et dans les années 1843-44, a collecté de très nombreux spécimens, notamment pour les futures publications de Gould.
 </t>
         </is>
       </c>
@@ -668,7 +690,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(en) D. J. Kitchener, J. Stoddart et J. Henry, « A taxonomic revision of the Sminthopsis murina complex (Marsupialia, Dasyuridae) in Australia, including descriptions of four new species », Records of the Western Australian Museum, Western Australian Museum, vol. 11,‎ 1984, p. 201-247 (ISSN 0312-3162, lire en ligne)</t>
         </is>
